--- a/02_基本設計/UIデザイン.xlsx
+++ b/02_基本設計/UIデザイン.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CardGame\CardGame_Document\02_基本設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F15D6D58-E943-4026-B603-951490D759A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CAC082D-5D9D-4298-A522-6B7691D30FA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" tabRatio="716" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="716" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ライフ" sheetId="9" r:id="rId1"/>
@@ -30,49 +30,49 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="85">
   <si>
     <t>目次</t>
   </si>
   <si>
     <t>No.</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>名前</t>
     <rPh sb="0" eb="2">
       <t>ナマエ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>効果発動条件</t>
     <rPh sb="0" eb="6">
       <t>コウカハツドウジョウケン</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>効果</t>
     <rPh sb="0" eb="2">
       <t>コウカ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>フレーバーテキスト</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>棄教者</t>
     <rPh sb="0" eb="3">
       <t>キキョウシャ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>相手がセットしたカードが神</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>このゲームに特殊勝利する。</t>
@@ -82,7 +82,7 @@
     <rPh sb="8" eb="10">
       <t>ショウリ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>「道徳で腹は膨れないし、信仰で幸せは訪れない。なぜみんなその事実から目を背けるのだろう？」</t>
@@ -113,25 +113,25 @@
     <rPh sb="36" eb="37">
       <t>ソム</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>死</t>
     <rPh sb="0" eb="1">
       <t>シ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>イニシアチブを失う</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>このゲームに特殊敗北する。</t>
     <rPh sb="8" eb="10">
       <t>ハイボク</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>死を忘るるなかれ…その日を摘め、今を生きろ。</t>
@@ -141,18 +141,18 @@
     <rPh sb="2" eb="3">
       <t>ワス</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>道化師</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>このターンダメージを受けない。</t>
     <rPh sb="10" eb="11">
       <t>ウ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>「君にはわかんないと思うけど、実は僕が切り札なんだよね～」</t>
@@ -174,7 +174,7 @@
     <rPh sb="21" eb="22">
       <t>フダ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>占い師</t>
@@ -184,11 +184,11 @@
     <rPh sb="2" eb="3">
       <t>シ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>イニシアチブを得る</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>相手の手札をランダムに1枚選び公開する。
@@ -208,7 +208,7 @@
     <rPh sb="39" eb="40">
       <t>カナラ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>「お前さん、2歩下がるでないぞ。…なんでもない。耄碌した婆の独り言じゃ。」</t>
@@ -233,11 +233,11 @@
     <rPh sb="32" eb="33">
       <t>ゴト</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>手品師</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>自分と相手がセットしたカードと入れ替える。</t>
@@ -247,7 +247,7 @@
     <rPh sb="3" eb="5">
       <t>アイテ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>「あれ～？気が付かなかった？兄ちゃんなら見破るのにな～。」</t>
@@ -263,14 +263,14 @@
     <rPh sb="20" eb="22">
       <t>ミヤブ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>詐欺師</t>
     <rPh sb="0" eb="3">
       <t>サギシ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>相手の手札をランダムに1枚選び、相手がセットしたカードと入れ替える。</t>
@@ -292,7 +292,7 @@
     <rPh sb="30" eb="31">
       <t>カ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>「どこで間違えたんだろうねぇ？？？妹ですら、間違えねぇのに。」</t>
@@ -302,14 +302,14 @@
     <rPh sb="22" eb="24">
       <t>マチガ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>霊能力者</t>
     <rPh sb="0" eb="4">
       <t>レイノウリョクシャ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>自分の手札を1枚選び、墓地(墓地にカードがない場合は余)カードと入れ替える。</t>
@@ -343,7 +343,7 @@
     <rPh sb="34" eb="35">
       <t>カ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>「あいつはこの物語の登場人物ではなかった。気が付けば輪の中にいたんだ。」</t>
@@ -365,14 +365,14 @@
     <rPh sb="28" eb="29">
       <t>ナカ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>鍛冶屋</t>
     <rPh sb="0" eb="3">
       <t>カジヤ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>追加で2ダメージ与える。</t>
@@ -382,7 +382,7 @@
     <rPh sb="8" eb="9">
       <t>アタ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>「たたら場の炉の底にいた禍々しい”悪魔”に魅入られてしまったんじゃ。悪魔は武器になりたがっていたんじゃ。」</t>
@@ -410,14 +410,14 @@
     <rPh sb="37" eb="39">
       <t>ブキ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>科学者</t>
     <rPh sb="0" eb="3">
       <t>カガクシャ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>3ライフ回復し、ダメージを与えない。</t>
@@ -427,7 +427,7 @@
     <rPh sb="13" eb="14">
       <t>アタ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>「私の発明は人を殺さないでくれ！！」</t>
@@ -443,14 +443,14 @@
     <rPh sb="8" eb="9">
       <t>コロ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>信仰者</t>
     <rPh sb="0" eb="3">
       <t>シンコウシャ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>追加で2ライフ失う。</t>
@@ -460,7 +460,7 @@
     <rPh sb="7" eb="8">
       <t>ウシナ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>「我が主に血、肉、骨を捧げよ。」</t>
@@ -482,22 +482,22 @@
     <rPh sb="11" eb="12">
       <t>ササ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>神</t>
     <rPh sb="0" eb="1">
       <t>カミ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>相手がセットしたカードが棄教者</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>このゲームに特殊敗北する。</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>神は信仰によって生まれ、無信仰によって死ぬ。</t>
@@ -516,7 +516,7 @@
     <rPh sb="19" eb="20">
       <t>シ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>特殊能力</t>
@@ -526,11 +526,11 @@
     <rPh sb="0" eb="4">
       <t>トクシュノウリョク</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>オープン</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>カード能力</t>
@@ -540,7 +540,7 @@
     <rPh sb="3" eb="5">
       <t>ノウリョク</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>倒すだけが勝利ではない。</t>
@@ -550,7 +550,7 @@
     <rPh sb="5" eb="7">
       <t>ショウリ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>4ターン目終了時に生きていれば特殊勝利</t>
@@ -569,18 +569,18 @@
     <rPh sb="17" eb="19">
       <t>ショウリ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>パッシブ</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>黙示録</t>
     <rPh sb="0" eb="3">
       <t>モクシロク</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>「イレギュラーを考慮し、準備する。保守的だと笑えばいい。私は負けない。」</t>
@@ -602,7 +602,7 @@
     <rPh sb="30" eb="31">
       <t>マ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>特殊敗北を無効にする</t>
@@ -615,11 +615,11 @@
     <rPh sb="5" eb="7">
       <t>ムコウ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>アーティファクト</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>「手品師の技術(大嘘)を高額で売ってやったぜ！かなり儲かっ…なんでできるんだよ！！」</t>
@@ -641,18 +641,18 @@
     <rPh sb="26" eb="27">
       <t>モウ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>自分と相手がセットしたカードと入れ替える。</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>使用ターンのクローズ</t>
     <rPh sb="0" eb="2">
       <t>シヨウ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>手品師入門の書</t>
@@ -665,7 +665,7 @@
     <rPh sb="6" eb="7">
       <t>ショ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>快楽と絶望の先に得たものは？</t>
@@ -681,7 +681,7 @@
     <rPh sb="8" eb="9">
       <t>エ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>2ダメージ受け、これ以外の権能を一枚取得する。</t>
@@ -700,14 +700,14 @@
     <rPh sb="18" eb="20">
       <t>シュトク</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>即時</t>
     <rPh sb="0" eb="2">
       <t>ソクジ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>神の薬-鴉片-</t>
@@ -720,7 +720,7 @@
     <rPh sb="4" eb="6">
       <t>アヘン</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>平凡に平和を願う。</t>
@@ -733,7 +733,7 @@
     <rPh sb="6" eb="7">
       <t>ネガ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>2ダメージ分回復</t>
@@ -743,21 +743,21 @@
     <rPh sb="6" eb="8">
       <t>カイフク</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>使用ターンのオープン</t>
     <rPh sb="0" eb="2">
       <t>シヨウ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>薬屋のポーション</t>
     <rPh sb="0" eb="2">
       <t>クスリヤ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>ロジカルなあなたはこれを選ぶだろう。…くれぐれも深読みにご用心。</t>
@@ -770,7 +770,7 @@
     <rPh sb="29" eb="31">
       <t>ヨウジン</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>余カードが何かわかる</t>
@@ -780,7 +780,7 @@
     <rPh sb="5" eb="6">
       <t>ナニ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>全能の眼</t>
@@ -790,7 +790,7 @@
     <rPh sb="3" eb="4">
       <t>メ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>「禍々しい剣など1振りで十分じゃ！！」</t>
@@ -806,7 +806,7 @@
     <rPh sb="12" eb="14">
       <t>ジュウブン</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>追加で2ダメージ与える</t>
@@ -816,7 +816,7 @@
     <rPh sb="8" eb="9">
       <t>アタ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>使用ターンのオープンにイニシアチブを得ている</t>
@@ -826,21 +826,21 @@
     <rPh sb="18" eb="19">
       <t>エ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>魔剣</t>
     <rPh sb="0" eb="2">
       <t>マケン</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>能力</t>
     <rPh sb="0" eb="2">
       <t>ノウリョク</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>発動条件</t>
@@ -850,22 +850,22 @@
     <rPh sb="2" eb="4">
       <t>ジョウケン</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>権能</t>
     <rPh sb="0" eb="2">
       <t>ケンノウ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>カードデザイン</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>カードデザイン</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>特殊能力デザイン</t>
@@ -875,7 +875,7 @@
     <rPh sb="0" eb="4">
       <t>トクシュノウリョク</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>魔剣</t>
@@ -885,19 +885,34 @@
   </si>
   <si>
     <t>ライフ</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ゆうま提案</t>
+    <rPh sb="3" eb="5">
+      <t>テイアン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Yu Gothic"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1201,80 +1216,83 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2512,8 +2530,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="295461" y="285750"/>
-          <a:ext cx="2857314" cy="4581525"/>
+          <a:off x="301064" y="291353"/>
+          <a:ext cx="2913343" cy="4671172"/>
           <a:chOff x="571500" y="561975"/>
           <a:chExt cx="2857500" cy="4581525"/>
         </a:xfrm>
@@ -3130,8 +3148,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3664323" y="295461"/>
-          <a:ext cx="2917452" cy="4571814"/>
+          <a:off x="3731558" y="301064"/>
+          <a:ext cx="2979085" cy="4661461"/>
           <a:chOff x="507019" y="571500"/>
           <a:chExt cx="2921981" cy="4572000"/>
         </a:xfrm>
@@ -3749,8 +3767,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7153461" y="285750"/>
-          <a:ext cx="2857314" cy="4581525"/>
+          <a:off x="7293535" y="291353"/>
+          <a:ext cx="2913343" cy="4671172"/>
           <a:chOff x="571500" y="561975"/>
           <a:chExt cx="2857500" cy="4581525"/>
         </a:xfrm>
@@ -4367,8 +4385,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10572750" y="285750"/>
-          <a:ext cx="2853392" cy="4581525"/>
+          <a:off x="10780059" y="291353"/>
+          <a:ext cx="2903818" cy="4671172"/>
           <a:chOff x="571500" y="561975"/>
           <a:chExt cx="2857500" cy="4581525"/>
         </a:xfrm>
@@ -4985,8 +5003,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="14001750" y="285750"/>
-          <a:ext cx="2853391" cy="4581525"/>
+          <a:off x="14276294" y="291353"/>
+          <a:ext cx="2903818" cy="4671172"/>
           <a:chOff x="571500" y="561975"/>
           <a:chExt cx="2857500" cy="4581525"/>
         </a:xfrm>
@@ -5603,8 +5621,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="17430750" y="285750"/>
-          <a:ext cx="2853391" cy="4581525"/>
+          <a:off x="17772529" y="291353"/>
+          <a:ext cx="2903818" cy="4671172"/>
           <a:chOff x="571500" y="561975"/>
           <a:chExt cx="2857500" cy="4581525"/>
         </a:xfrm>
@@ -6221,8 +6239,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="285750" y="5429250"/>
-          <a:ext cx="2853392" cy="4581525"/>
+          <a:off x="291353" y="5535706"/>
+          <a:ext cx="2903818" cy="4671172"/>
           <a:chOff x="571500" y="561975"/>
           <a:chExt cx="2857500" cy="4581525"/>
         </a:xfrm>
@@ -6839,8 +6857,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3714750" y="5429250"/>
-          <a:ext cx="2853391" cy="4581525"/>
+          <a:off x="3787588" y="5535706"/>
+          <a:ext cx="2903818" cy="4671172"/>
           <a:chOff x="571500" y="561975"/>
           <a:chExt cx="2857500" cy="4581525"/>
         </a:xfrm>
@@ -7457,8 +7475,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7143750" y="5429250"/>
-          <a:ext cx="2853392" cy="4581525"/>
+          <a:off x="7283824" y="5535706"/>
+          <a:ext cx="2903818" cy="4671172"/>
           <a:chOff x="571500" y="561975"/>
           <a:chExt cx="2857500" cy="4581525"/>
         </a:xfrm>
@@ -8075,8 +8093,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10572750" y="5429250"/>
-          <a:ext cx="2853392" cy="4581525"/>
+          <a:off x="10780059" y="5535706"/>
+          <a:ext cx="2903818" cy="4671172"/>
           <a:chOff x="571500" y="561975"/>
           <a:chExt cx="2857500" cy="4581525"/>
         </a:xfrm>
@@ -8693,8 +8711,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="14001750" y="5438961"/>
-          <a:ext cx="2853391" cy="4571814"/>
+          <a:off x="14276294" y="5545417"/>
+          <a:ext cx="2903818" cy="4661461"/>
           <a:chOff x="571500" y="571500"/>
           <a:chExt cx="2857500" cy="4572000"/>
         </a:xfrm>
@@ -9759,7 +9777,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97501DEB-539C-498C-8280-5A351665B6AE}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M40" sqref="M40"/>
     </sheetView>
   </sheetViews>
@@ -9771,7 +9789,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
+  <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -9818,7 +9836,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
+  <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -9826,10 +9844,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7B2BA67-86CF-41CF-A90D-D757296023F5}">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.75" defaultRowHeight="22.5" customHeight="1"/>
@@ -9837,223 +9855,238 @@
     <col min="1" max="1" width="3.75" style="3"/>
     <col min="2" max="2" width="4.375" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="70" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="99.875" style="3" hidden="1" customWidth="1"/>
-    <col min="7" max="16384" width="3.75" style="3"/>
+    <col min="4" max="4" width="25.375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="31.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="70" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="99.875" style="3" hidden="1" customWidth="1"/>
+    <col min="8" max="16384" width="3.75" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="22.5" customHeight="1" thickBot="1">
+    <row r="1" spans="1:7" ht="22.5" customHeight="1" thickBot="1">
       <c r="A1" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="22.5" customHeight="1" thickBot="1">
+    <row r="2" spans="1:7" ht="22.5" customHeight="1" thickBot="1">
       <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="G2" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="39.75" customHeight="1" thickTop="1">
+    <row r="3" spans="1:7" ht="39.75" customHeight="1" thickTop="1">
       <c r="B3" s="8">
         <v>0</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="9"/>
+      <c r="E3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="F3" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="G3" s="10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="39.75" customHeight="1">
+    <row r="4" spans="1:7" ht="39.75" customHeight="1">
       <c r="B4" s="11">
         <v>1</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="12"/>
+      <c r="E4" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="F4" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="G4" s="13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="39.75" customHeight="1">
+    <row r="5" spans="1:7" ht="39.75" customHeight="1">
       <c r="B5" s="11">
         <v>2</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="12"/>
+      <c r="E5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="F5" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="G5" s="13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="39.75" customHeight="1">
+    <row r="6" spans="1:7" ht="39.75" customHeight="1">
       <c r="B6" s="11">
         <v>3</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="12"/>
+      <c r="E6" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="F6" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="G6" s="13" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="39.75" customHeight="1">
+    <row r="7" spans="1:7" ht="39.75" customHeight="1">
       <c r="B7" s="11">
         <v>4</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="12"/>
+      <c r="E7" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="F7" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="G7" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="39.75" customHeight="1">
+    <row r="8" spans="1:7" ht="39.75" customHeight="1">
       <c r="B8" s="11">
         <v>5</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="12"/>
+      <c r="E8" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="F8" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="G8" s="13" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="39.75" customHeight="1">
+    <row r="9" spans="1:7" ht="39.75" customHeight="1">
       <c r="B9" s="11">
         <v>6</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="12"/>
+      <c r="E9" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="F9" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="G9" s="13" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="39.75" customHeight="1">
+    <row r="10" spans="1:7" ht="39.75" customHeight="1">
       <c r="B10" s="11">
         <v>7</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="12"/>
+      <c r="E10" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="F10" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="G10" s="13" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="39.75" customHeight="1">
+    <row r="11" spans="1:7" ht="39.75" customHeight="1">
       <c r="B11" s="11">
         <v>8</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="12"/>
+      <c r="E11" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="F11" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="G11" s="13" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="39.75" customHeight="1">
+    <row r="12" spans="1:7" ht="39.75" customHeight="1">
       <c r="B12" s="11">
         <v>9</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="12"/>
+      <c r="E12" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="18" t="s">
+      <c r="F12" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="13" t="s">
+      <c r="G12" s="13" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="39.75" customHeight="1" thickBot="1">
+    <row r="13" spans="1:7" ht="39.75" customHeight="1" thickBot="1">
       <c r="B13" s="14">
         <v>10</v>
       </c>
       <c r="C13" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="15"/>
+      <c r="E13" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="E13" s="20" t="s">
+      <c r="F13" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="F13" s="16" t="s">
+      <c r="G13" s="16" t="s">
         <v>42</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
+  <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10065,7 +10098,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
@@ -10080,7 +10113,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
+  <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -10223,7 +10256,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
+  <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10250,7 +10283,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
+  <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
